--- a/outData/excel_2024-11-25.xlsx
+++ b/outData/excel_2024-11-25.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FacultyYear3\Licenta\VS\outData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A739261-824D-41C7-86EB-CF49329C4FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB8E06-4F51-4EAD-90F6-3A7A4A4701AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21810" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1230,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/outData/excel_2024-11-25.xlsx
+++ b/outData/excel_2024-11-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FacultyYear3\Licenta\VS\outData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB8E06-4F51-4EAD-90F6-3A7A4A4701AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C5AE4-F884-4447-B4DD-4AD9588937E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21810" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
